--- a/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.32</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>002236</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>大成中证360互联网+大数据100指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.06</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -660,25 +730,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002236</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成中证360互联网+大数据100指数A</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -693,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +792,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +822,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>288001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>华夏经典配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7674</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -772,15 +870,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>73.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -790,26 +898,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +936,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006166</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强C</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +974,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>288001</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏经典配置混合</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.55</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1012,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1050,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1088,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>006166</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>建信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -968,15 +1136,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>86.77</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -986,26 +1164,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,6 @@
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>91.02</t>
@@ -1188,6 +1188,290 @@
       </c>
       <c r="H11" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1477,4 +1478,818 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2292,4 +2293,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2301,7 +2302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2312,17 +2313,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2332,14 +2353,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.26</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2348,14 +2391,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.11</v>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2364,14 +2429,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.08</v>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2380,13 +2467,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2624,7 +2625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2635,17 +2636,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2655,14 +2676,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0286</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -2671,14 +2714,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.26</v>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2687,14 +2752,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.11</v>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2703,14 +2790,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.08</v>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2719,13 +2828,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3365,7 +3366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3376,17 +3377,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3396,14 +3417,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.83</v>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3412,14 +3455,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.7</v>
       </c>
     </row>
     <row r="4">
@@ -3428,14 +3493,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.26</v>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3444,14 +3531,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.11</v>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3460,14 +3569,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.08</v>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3476,13 +3607,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
+++ b/数据整理/stocks/A股/深证主板/002539-云图控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>4.26</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>1.11</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2021,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2835,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3119,7 +3382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3548,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
